--- a/biology/Zoologie/Onthophagus_arvernus/Onthophagus_arvernus.xlsx
+++ b/biology/Zoologie/Onthophagus_arvernus/Onthophagus_arvernus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onthophagus arvernus est une espèce fossile d'insecte coléoptère de la famille des Scarabaeidae (les scarabées) et du genre Onthophagus.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Onthophagus arvernus a été décrite en 1939 par les deux paléontologues français Louis Émile Piton (1909-1945) et Nicolas Théobald (1903-1981)[1],[2]. 
-Holotype fossile
-Cet holotype de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Rudel 31 et vient de la localité Puy-Saint-Jean[2] sur la commune Mur-sur-Allier dans le Puy-de-Dôme, juste au nord-est du Puy de Mur et à proximité de la rivière l'Allier, moins d'un kilomètre.
-Étymologie
-L'épithète spécifique arvernus fait référence aux Arvernes, un peuple celte de l'Auvergne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Onthophagus arvernus a été décrite en 1939 par les deux paléontologues français Louis Émile Piton (1909-1945) et Nicolas Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -543,21 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-« L'insecte représenté par l'empreinte et la contre-empreinte montre des fragments de la tête, du thorax, de l'abdomen et les deux élytres largement écartés. Le pronotum est brisé ; on peut pourtant reconnaître sa forme arrondie sur les côtés et rétrécie vers l'avant, ainsi que l'existence d'une ornementation consistant en une fine ponctuation. Élytres courts, arrondis à l'arrière, côtés subparallèles, fortement bombés dans le sens transversal et longitudinal ; surface entièrement couverte d'une ponctuation fine, serrée, régulièrement sériée longitudinalement ; quatre côtes longitudinales sont à peine marquées.
-De l'abdomen, on voit cinq anneaux dont les quatre derniers sont extrêmement courts. Une fine ponctuation est visible sur les bords.
-Actuellement, le fossile présente une coloration rouille claire. Le bord externe des élytres est très mince et d'une coloration marron foncé ; l'abdomen présente la teinte gris jaunâtre de la roche »[3].
-Dimensions
-Longueur de l'élytre : 10 mm ; largeur : 6 mm . La longueur totale du corps est de 12 mm[4].
-Affinités
-« Si l'allure générale du corps conduit de suite à attribuer ce Coléoptère aux Scarabaeidae, il faut remarquer qu'il peut subsister des doutes sur l'attribution générique du fossile, les caractères d'ornementation étant assez effacés.
-Notons que E. Oustalet a décrit Onthophagus luteus Oustalet des gypses d'Aix-en-Provence. L'exemplaire d'Aix est mieux conservé que celui du Puy-de-Mur. La forme et l'ornementation sont à peu près les mêmes dans les deux fossiles, mais celui d'Aix est de plus petite taille, aussi ne croyons-nous pas pouvoir identifier les deux insectes.
-Des terrains miocènes d'Œningen, O. Heer a décrit deux autres espèces : O.prodomus Heer et O. crassus Heer »[3].
+          <t>Holotype fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Rudel 31 et vient de la localité Puy-Saint-Jean sur la commune Mur-sur-Allier dans le Puy-de-Dôme, juste au nord-est du Puy de Mur et à proximité de la rivière l'Allier, moins d'un kilomètre.
 </t>
         </is>
       </c>
@@ -583,12 +590,168 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique arvernus fait référence aux Arvernes, un peuple celte de l'Auvergne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'insecte représenté par l'empreinte et la contre-empreinte montre des fragments de la tête, du thorax, de l'abdomen et les deux élytres largement écartés. Le pronotum est brisé ; on peut pourtant reconnaître sa forme arrondie sur les côtés et rétrécie vers l'avant, ainsi que l'existence d'une ornementation consistant en une fine ponctuation. Élytres courts, arrondis à l'arrière, côtés subparallèles, fortement bombés dans le sens transversal et longitudinal ; surface entièrement couverte d'une ponctuation fine, serrée, régulièrement sériée longitudinalement ; quatre côtes longitudinales sont à peine marquées.
+De l'abdomen, on voit cinq anneaux dont les quatre derniers sont extrêmement courts. Une fine ponctuation est visible sur les bords.
+Actuellement, le fossile présente une coloration rouille claire. Le bord externe des élytres est très mince et d'une coloration marron foncé ; l'abdomen présente la teinte gris jaunâtre de la roche ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longueur de l'élytre : 10 mm ; largeur : 6 mm . La longueur totale du corps est de 12 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Si l'allure générale du corps conduit de suite à attribuer ce Coléoptère aux Scarabaeidae, il faut remarquer qu'il peut subsister des doutes sur l'attribution générique du fossile, les caractères d'ornementation étant assez effacés.
+Notons que E. Oustalet a décrit Onthophagus luteus Oustalet des gypses d'Aix-en-Provence. L'exemplaire d'Aix est mieux conservé que celui du Puy-de-Mur. La forme et l'ornementation sont à peu près les mêmes dans les deux fossiles, mais celui d'Aix est de plus petite taille, aussi ne croyons-nous pas pouvoir identifier les deux insectes.
+Des terrains miocènes d'Œningen, O. Heer a décrit deux autres espèces : O.prodomus Heer et O. crassus Heer ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onthophagus_arvernus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le gisement du Puy-de-Mur, les coléoptères sont nombreux. Le gisement a des points communs avec celui d'Aix-en-Provence. Il témoigne d'influences tempérées et méditerranéennes chaudes. Ces dernières sont confirmées par la présence de deux petits poissons trouvés par L. Piton : Barbus rudeli Piton et Haplochilus giraudi Piton, dont les formes affines se retrouvent dans les Indes et la Malaisie[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le gisement du Puy-de-Mur, les coléoptères sont nombreux. Le gisement a des points communs avec celui d'Aix-en-Provence. Il témoigne d'influences tempérées et méditerranéennes chaudes. Ces dernières sont confirmées par la présence de deux petits poissons trouvés par L. Piton : Barbus rudeli Piton et Haplochilus giraudi Piton, dont les formes affines se retrouvent dans les Indes et la Malaisie.
 </t>
         </is>
       </c>
